--- a/pharmacy_database.xlsx
+++ b/pharmacy_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esraa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A1C3D3-2E27-456F-91A3-A157422C2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E36E1-F866-4C33-A2A4-96332A88ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="798">
   <si>
     <t>رقم</t>
   </si>
@@ -2411,6 +2411,9 @@
   </si>
   <si>
     <t>اسم الدواء</t>
+  </si>
+  <si>
+    <t>Augmentin1g Amuricillin B75 mg Clavulanic acid 1Z5 mg Each film contedl !atilet conta rs ٠٦٦٢ ٦؛١ ١٦ ٠ ٢ ٦ ٠١ ٠٠٦٠٦٠ ،٠ Arneraillin B75 و٨ Forassium clavulanدte 148,9 !n7 89 ٨٦ ٠٦ ٦ ٠ ٢ ٦ ٢٢ 125 "19 14 Film coated tablets 1 9</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2784,7 @@
   <dimension ref="A1:H401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2869,7 +2872,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>797</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
